--- a/Excel/刷怪点表.xlsx
+++ b/Excel/刷怪点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674E8D4-5D57-B446-85D2-7E21045B73B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9677B-B236-7A43-ADB5-09D06F4D4116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>地图ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -45,6 +41,10 @@
   </si>
   <si>
     <t>怪物ID配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2,2,3,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1"/>
     </row>

--- a/Excel/刷怪点表.xlsx
+++ b/Excel/刷怪点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9677B-B236-7A43-ADB5-09D06F4D4116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC361FED-0E2E-194B-A736-6BBD26DEA6C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,19 +32,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,3,3,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物ID配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,2,2,3,3</t>
+    <t>2,2,2,2,3,3,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,3,3,3,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,2,3,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,2,2,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,13 +454,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -463,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -477,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -489,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -501,17 +513,44 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="16">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
